--- a/dynamics/1/Kniga1.xlsx
+++ b/dynamics/1/Kniga1.xlsx
@@ -16,8 +16,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>ЛИН ЭЙДЖ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,27 +96,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>i=2</c:v>
+            <c:v>I'=2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$6:$F$10</c:f>
+              <c:f>Лист1!$F$6:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -119,7 +139,16 @@
                   <c:v>0.97919999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95640000000000003</c:v>
+                  <c:v>-0.16289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.19819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -127,104 +156,82 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>i=3</c:v>
+            <c:v>i=2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$6:$G$10</c:f>
+              <c:f>Лист1!$F$6:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99439999999999995</c:v>
+                  <c:v>0.99650000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98340000000000005</c:v>
+                  <c:v>0.98960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96689999999999998</c:v>
+                  <c:v>0.97919999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87480000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>i=4</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$H$6:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77749999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27479999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>i=5</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$6:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6400000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.39350000000000002</c:v>
+                  <c:v>-0.16289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.19819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.31459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.31469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.31480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.31490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.42420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.42149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.41889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4450000000000004E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,20 +247,53 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="385923064"/>
-        <c:axId val="385568424"/>
+        <c:axId val="176537456"/>
+        <c:axId val="176538240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="385923064"/>
+        <c:axId val="176537456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385568424"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176538240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,31 +301,134 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385568424"/>
+        <c:axId val="176538240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385923064"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176537456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -294,24 +437,580 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -616,15 +1315,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:I10"/>
+  <dimension ref="C5:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>2</v>
       </c>
@@ -637,8 +1341,29 @@
       <c r="I5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1</v>
       </c>
@@ -654,8 +1379,29 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>2</v>
       </c>
@@ -672,7 +1418,7 @@
         <v>0.80330000000000001</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>3</v>
       </c>
@@ -689,7 +1435,7 @@
         <v>0.44990000000000002</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>4</v>
       </c>
@@ -706,21 +1452,350 @@
         <v>8.6400000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>0.95640000000000003</v>
+        <v>-0.16289999999999999</v>
       </c>
       <c r="G10">
-        <v>0.87480000000000002</v>
+        <v>-0.84509999999999996</v>
       </c>
       <c r="H10">
-        <v>0.27479999999999999</v>
+        <v>-2.0059999999999998</v>
       </c>
       <c r="I10">
         <v>-0.39350000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>-0.1754</v>
+      </c>
+      <c r="G11">
+        <v>-0.33179999999999998</v>
+      </c>
+      <c r="H11">
+        <v>192.9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>-0.19819999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.60589999999999999</v>
+      </c>
+      <c r="H12">
+        <v>579.4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>-0.3145</v>
+      </c>
+      <c r="G13">
+        <v>5.51</v>
+      </c>
+      <c r="H13">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <f>F13+(F17-F13)/4</f>
+        <v>-0.31459999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:P14" si="0">G13+(G17-G13)/4</f>
+        <v>5.5137499999999999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2405</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>F13+2*(F17-F13)/4</f>
+        <v>-0.31469999999999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:P15" si="1">G13+2*(G17-G13)/4</f>
+        <v>5.5175000000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2404</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <f>F13+3*(F17-F13)/4</f>
+        <v>-0.31480000000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:P16" si="2">G13+3*(G17-G13)/4</f>
+        <v>5.5212500000000002</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2403</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>-0.31490000000000001</v>
+      </c>
+      <c r="G17">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="H17">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>-0.42420000000000002</v>
+      </c>
+      <c r="G18">
+        <v>14.04</v>
+      </c>
+      <c r="H18">
+        <v>535.1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>-0.42149999999999999</v>
+      </c>
+      <c r="G19">
+        <v>11.92</v>
+      </c>
+      <c r="H19">
+        <v>552.70000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>-0.45779999999999998</v>
+      </c>
+      <c r="G20">
+        <v>11.92</v>
+      </c>
+      <c r="H20">
+        <v>-158.9</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>-0.41889999999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.034</v>
+      </c>
+      <c r="H21">
+        <v>558.29999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>-0.4708</v>
+      </c>
+      <c r="G22">
+        <v>12.53</v>
+      </c>
+      <c r="H22">
+        <v>-634.6</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>7.4450000000000004E-4</v>
+      </c>
+      <c r="G23">
+        <v>1.1990000000000001E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-0.31469999999999998</v>
+      </c>
+      <c r="G25">
+        <v>5.5140000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-0.31509999999999999</v>
+      </c>
+      <c r="G26">
+        <v>5.5259999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-0.3155</v>
+      </c>
+      <c r="G27">
+        <v>5.5350000000000001</v>
       </c>
     </row>
   </sheetData>
